--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Equipment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>NAME</t>
   </si>
@@ -89,6 +90,96 @@
   </si>
   <si>
     <t>EMPLOYEES</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>The Heavy Hammer</t>
+  </si>
+  <si>
+    <t>Nathaniel Oaker</t>
+  </si>
+  <si>
+    <t>The Apex District of Heartland City.  Located in Chimney Row.</t>
+  </si>
+  <si>
+    <t>Military Provisions (Weapons &amp; Armor)</t>
+  </si>
+  <si>
+    <t>Probably Others</t>
+  </si>
+  <si>
+    <t>Armor, non-magical</t>
+  </si>
+  <si>
+    <t>Weapons, non-magical</t>
+  </si>
+  <si>
+    <t>Ammunition, non-magical</t>
+  </si>
+  <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
+    <t>Flail</t>
+  </si>
+  <si>
+    <t>Greataxe</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Longsword</t>
+  </si>
+  <si>
+    <t>Rapier</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Whip</t>
+  </si>
+  <si>
+    <t>Crossbow, hand</t>
+  </si>
+  <si>
+    <t>Crossbow, heavy</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Shortbow</t>
+  </si>
+  <si>
+    <t>Longbow</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Breastplate</t>
+  </si>
+  <si>
+    <t>Leather Armor</t>
+  </si>
+  <si>
+    <t>Split Armor</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>The Heavy Hammer is a quaint military provisions shop run by a diligent Nathaniel Oaker.  Compared to other arms shops in Chimney Row, it's  quite underwhelming.  However, some of the highest levels of the Guard Infantry can be seen frequenting the Heavy Hammer.</t>
+  </si>
+  <si>
+    <t>Obsidian Edge</t>
+  </si>
+  <si>
+    <t>Military Provisions (Weapons only)</t>
   </si>
 </sst>
 </file>
@@ -142,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -274,33 +365,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,29 +417,77 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,171 +806,707 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D10" s="3">
         <v>0.5</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D11" s="3">
         <v>0.25</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-    </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="3">
         <v>1.5</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B12:E12"/>
+  <mergeCells count="8">
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Equipment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
   <si>
     <t>NAME</t>
   </si>
@@ -180,6 +180,145 @@
   </si>
   <si>
     <t>Military Provisions (Weapons only)</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>Armor, magical</t>
+  </si>
+  <si>
+    <t>Weapons, magical</t>
+  </si>
+  <si>
+    <t>Less than 50kg</t>
+  </si>
+  <si>
+    <t>Antone Debeton</t>
+  </si>
+  <si>
+    <t>Run by Veronica Debeton (Daughter)
+Hired Help: Shawn Hilltower</t>
+  </si>
+  <si>
+    <t>Obsidian Edge is the top of the line weapons dealer in Heartland City and the largest shop in the kingdom.  It commands a large amount of attention from weapon dealers attempting to buy and blacksmithes attempting to sell. The shop is not exactly know for their fair prices.</t>
+  </si>
+  <si>
+    <t>Less than 5kg</t>
+  </si>
+  <si>
+    <t>Crossbow, heavy +3</t>
+  </si>
+  <si>
+    <t>Flail +3</t>
+  </si>
+  <si>
+    <t>Battleaxe +2</t>
+  </si>
+  <si>
+    <t>Blowgun +2</t>
+  </si>
+  <si>
+    <t>Greatsword +2</t>
+  </si>
+  <si>
+    <t>Halbred +2</t>
+  </si>
+  <si>
+    <t>Longsword +3</t>
+  </si>
+  <si>
+    <t>Maul +3</t>
+  </si>
+  <si>
+    <t>Morningstar +2</t>
+  </si>
+  <si>
+    <t>Rapier +3</t>
+  </si>
+  <si>
+    <t>Scimitar +3</t>
+  </si>
+  <si>
+    <t>Shortsword +2</t>
+  </si>
+  <si>
+    <t>Shortbow +2</t>
+  </si>
+  <si>
+    <t>Warhammer +2</t>
+  </si>
+  <si>
+    <t>1,400g</t>
+  </si>
+  <si>
+    <t>2,100g</t>
+  </si>
+  <si>
+    <t>700g</t>
+  </si>
+  <si>
+    <t>1,050g</t>
+  </si>
+  <si>
+    <t>2,500g</t>
+  </si>
+  <si>
+    <t>3,750g</t>
+  </si>
+  <si>
+    <t>1,387g 5s</t>
+  </si>
+  <si>
+    <t>925g</t>
+  </si>
+  <si>
+    <t>1,250g</t>
+  </si>
+  <si>
+    <t>1,875g</t>
+  </si>
+  <si>
+    <t>25kg</t>
+  </si>
+  <si>
+    <t>37.5kg</t>
+  </si>
+  <si>
+    <t>7kg</t>
+  </si>
+  <si>
+    <t>10.5kg</t>
+  </si>
+  <si>
+    <t>12.5kg</t>
+  </si>
+  <si>
+    <t>18.75kg</t>
+  </si>
+  <si>
+    <t>9.25kg</t>
+  </si>
+  <si>
+    <t>13,875g</t>
+  </si>
+  <si>
+    <t>4,250g</t>
+  </si>
+  <si>
+    <t>6,375g</t>
+  </si>
+  <si>
+    <t>Handaxe +3 (1)</t>
+  </si>
+  <si>
+    <t>Javelin +3 (4)</t>
+  </si>
+  <si>
+    <t>3,062g 5s</t>
+  </si>
+  <si>
+    <t>4,593g 75s</t>
   </si>
 </sst>
 </file>
@@ -417,6 +556,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,17 +586,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -459,34 +616,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -806,58 +945,58 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -908,10 +1047,10 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -987,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E49"/>
+  <dimension ref="B1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,68 +1139,68 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
@@ -1120,10 +1259,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
@@ -1140,7 +1279,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="3"/>
@@ -1150,7 +1289,7 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="3"/>
@@ -1160,7 +1299,7 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="3"/>
@@ -1170,7 +1309,7 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="3"/>
@@ -1180,7 +1319,7 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3"/>
@@ -1190,7 +1329,7 @@
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3"/>
@@ -1200,7 +1339,7 @@
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="3"/>
@@ -1210,7 +1349,7 @@
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="3"/>
@@ -1220,7 +1359,7 @@
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3"/>
@@ -1230,7 +1369,7 @@
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="3"/>
@@ -1240,7 +1379,7 @@
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
@@ -1250,7 +1389,7 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="3"/>
@@ -1260,7 +1399,7 @@
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="3"/>
@@ -1270,7 +1409,7 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="3"/>
@@ -1280,7 +1419,7 @@
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="3"/>
@@ -1290,7 +1429,7 @@
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C30" s="3"/>
@@ -1300,7 +1439,7 @@
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="3"/>
@@ -1310,7 +1449,7 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="6"/>
@@ -1321,62 +1460,68 @@
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="C37" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="C38" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+    </row>
+    <row r="39" spans="2:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="C39" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
@@ -1394,13 +1539,13 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>12</v>
@@ -1408,29 +1553,37 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D43" s="3">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
@@ -1448,48 +1601,238 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D47" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3">
         <v>1.5</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="B45:E45"/>
     <mergeCell ref="B34:E34"/>
@@ -1498,14 +1841,6 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="134">
   <si>
     <t>NAME</t>
   </si>
@@ -149,18 +149,12 @@
     <t>Crossbow, heavy</t>
   </si>
   <si>
-    <t>Dart</t>
-  </si>
-  <si>
     <t>Shortbow</t>
   </si>
   <si>
     <t>Longbow</t>
   </si>
   <si>
-    <t>Spear</t>
-  </si>
-  <si>
     <t>Breastplate</t>
   </si>
   <si>
@@ -197,128 +191,234 @@
     <t>Antone Debeton</t>
   </si>
   <si>
+    <t>Obsidian Edge is the top of the line weapons dealer in Heartland City and the largest shop in the kingdom.  It commands a large amount of attention from weapon dealers attempting to buy and blacksmithes attempting to sell. The shop is not exactly know for their fair prices.</t>
+  </si>
+  <si>
+    <t>Less than 5kg</t>
+  </si>
+  <si>
+    <t>Crossbow, heavy +3</t>
+  </si>
+  <si>
+    <t>Flail +3</t>
+  </si>
+  <si>
+    <t>Battleaxe +2</t>
+  </si>
+  <si>
+    <t>Blowgun +2</t>
+  </si>
+  <si>
+    <t>Greatsword +2</t>
+  </si>
+  <si>
+    <t>Halbred +2</t>
+  </si>
+  <si>
+    <t>Longsword +3</t>
+  </si>
+  <si>
+    <t>Maul +3</t>
+  </si>
+  <si>
+    <t>Morningstar +2</t>
+  </si>
+  <si>
+    <t>Rapier +3</t>
+  </si>
+  <si>
+    <t>Scimitar +3</t>
+  </si>
+  <si>
+    <t>Shortsword +2</t>
+  </si>
+  <si>
+    <t>Shortbow +2</t>
+  </si>
+  <si>
+    <t>Warhammer +2</t>
+  </si>
+  <si>
+    <t>1,400g</t>
+  </si>
+  <si>
+    <t>2,100g</t>
+  </si>
+  <si>
+    <t>700g</t>
+  </si>
+  <si>
+    <t>1,050g</t>
+  </si>
+  <si>
+    <t>2,500g</t>
+  </si>
+  <si>
+    <t>3,750g</t>
+  </si>
+  <si>
+    <t>1,387g 5s</t>
+  </si>
+  <si>
+    <t>925g</t>
+  </si>
+  <si>
+    <t>1,250g</t>
+  </si>
+  <si>
+    <t>1,875g</t>
+  </si>
+  <si>
+    <t>25kg</t>
+  </si>
+  <si>
+    <t>37.5kg</t>
+  </si>
+  <si>
+    <t>7kg</t>
+  </si>
+  <si>
+    <t>10.5kg</t>
+  </si>
+  <si>
+    <t>12.5kg</t>
+  </si>
+  <si>
+    <t>18.75kg</t>
+  </si>
+  <si>
+    <t>9.25kg</t>
+  </si>
+  <si>
+    <t>13,875g</t>
+  </si>
+  <si>
+    <t>4,250g</t>
+  </si>
+  <si>
+    <t>6,375g</t>
+  </si>
+  <si>
+    <t>Handaxe +3 (1)</t>
+  </si>
+  <si>
+    <t>Javelin +3 (4)</t>
+  </si>
+  <si>
+    <t>3,062g 5s</t>
+  </si>
+  <si>
+    <t>4,593g 75s</t>
+  </si>
+  <si>
+    <t>75g</t>
+  </si>
+  <si>
+    <t>Dart (25)</t>
+  </si>
+  <si>
+    <t>5cp</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>Spear (5)</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>400g</t>
+  </si>
+  <si>
+    <t>200g</t>
+  </si>
+  <si>
+    <t>Lionel Company</t>
+  </si>
+  <si>
+    <t>Military Provisions (Armor only)</t>
+  </si>
+  <si>
+    <t>William Lionel</t>
+  </si>
+  <si>
+    <t>Manager: Robert Banks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lionel Company is the premier armorshop in Heartland City.  It's known for it's excellent quality and high price tags.  The wealthiest of the knights frequent Lionel Company for their platemail and heavy shields.  </t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
     <t>Run by Veronica Debeton (Daughter)
+Appraiser: Milton Pennywater
 Hired Help: Shawn Hilltower</t>
   </si>
   <si>
-    <t>Obsidian Edge is the top of the line weapons dealer in Heartland City and the largest shop in the kingdom.  It commands a large amount of attention from weapon dealers attempting to buy and blacksmithes attempting to sell. The shop is not exactly know for their fair prices.</t>
-  </si>
-  <si>
-    <t>Less than 5kg</t>
-  </si>
-  <si>
-    <t>Crossbow, heavy +3</t>
-  </si>
-  <si>
-    <t>Flail +3</t>
-  </si>
-  <si>
-    <t>Battleaxe +2</t>
-  </si>
-  <si>
-    <t>Blowgun +2</t>
-  </si>
-  <si>
-    <t>Greatsword +2</t>
-  </si>
-  <si>
-    <t>Halbred +2</t>
-  </si>
-  <si>
-    <t>Longsword +3</t>
-  </si>
-  <si>
-    <t>Maul +3</t>
-  </si>
-  <si>
-    <t>Morningstar +2</t>
-  </si>
-  <si>
-    <t>Rapier +3</t>
-  </si>
-  <si>
-    <t>Scimitar +3</t>
-  </si>
-  <si>
-    <t>Shortsword +2</t>
-  </si>
-  <si>
-    <t>Shortbow +2</t>
-  </si>
-  <si>
-    <t>Warhammer +2</t>
-  </si>
-  <si>
-    <t>1,400g</t>
-  </si>
-  <si>
-    <t>2,100g</t>
-  </si>
-  <si>
-    <t>700g</t>
-  </si>
-  <si>
-    <t>1,050g</t>
-  </si>
-  <si>
-    <t>2,500g</t>
-  </si>
-  <si>
-    <t>3,750g</t>
-  </si>
-  <si>
-    <t>1,387g 5s</t>
-  </si>
-  <si>
-    <t>925g</t>
-  </si>
-  <si>
-    <t>1,250g</t>
-  </si>
-  <si>
-    <t>1,875g</t>
-  </si>
-  <si>
-    <t>25kg</t>
-  </si>
-  <si>
-    <t>37.5kg</t>
-  </si>
-  <si>
-    <t>7kg</t>
-  </si>
-  <si>
-    <t>10.5kg</t>
-  </si>
-  <si>
-    <t>12.5kg</t>
-  </si>
-  <si>
-    <t>18.75kg</t>
-  </si>
-  <si>
-    <t>9.25kg</t>
-  </si>
-  <si>
-    <t>13,875g</t>
-  </si>
-  <si>
-    <t>4,250g</t>
-  </si>
-  <si>
-    <t>6,375g</t>
-  </si>
-  <si>
-    <t>Handaxe +3 (1)</t>
-  </si>
-  <si>
-    <t>Javelin +3 (4)</t>
-  </si>
-  <si>
-    <t>3,062g 5s</t>
-  </si>
-  <si>
-    <t>4,593g 75s</t>
+    <t>Studded Leather +2</t>
+  </si>
+  <si>
+    <t>Breastplate +2</t>
+  </si>
+  <si>
+    <t>Chain Mail +2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain Shirt +2 </t>
+  </si>
+  <si>
+    <t>Half Plate +2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plate +3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ring Mail +2 </t>
+  </si>
+  <si>
+    <t>Scale mail +2</t>
+  </si>
+  <si>
+    <t>Splint +2</t>
+  </si>
+  <si>
+    <t>20kg</t>
+  </si>
+  <si>
+    <t>1,500g</t>
+  </si>
+  <si>
+    <t>750kg</t>
+  </si>
+  <si>
+    <t>2,250g</t>
+  </si>
+  <si>
+    <t>10kg</t>
+  </si>
+  <si>
+    <t>14kg</t>
+  </si>
+  <si>
+    <t>3,150g</t>
+  </si>
+  <si>
+    <t>3,500g</t>
+  </si>
+  <si>
+    <t>1,050kg</t>
+  </si>
+  <si>
+    <t>52.5kg</t>
+  </si>
+  <si>
+    <t>5,250g</t>
+  </si>
+  <si>
+    <t>28kg</t>
   </si>
 </sst>
 </file>
@@ -604,28 +704,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E62"/>
+  <dimension ref="B1:E88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,51 +1250,51 @@
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
+      <c r="C7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
@@ -1282,240 +1382,312 @@
       <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
-      <c r="E20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="D32" s="6">
         <v>1</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B34" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19"/>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+    </row>
+    <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-    </row>
-    <row r="38" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-    </row>
-    <row r="39" spans="2:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
+      <c r="C39" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
@@ -1539,7 +1711,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>17</v>
@@ -1553,30 +1725,30 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D43" s="3">
         <v>0.1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D44" s="3">
         <v>0.1</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -1601,230 +1773,555 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3">
         <v>1.5</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D48" s="3">
         <v>1.5</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D49" s="3">
         <v>1.5</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D50" s="3">
         <v>1.5</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D51" s="3">
         <v>1.5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D52" s="3">
         <v>1.5</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D53" s="3">
         <v>1.5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D54" s="3">
         <v>1.5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D55" s="3">
         <v>1.5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D56" s="3">
         <v>1.5</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D57" s="3">
         <v>1.5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58" s="3">
         <v>1.5</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D59" s="3">
         <v>1.5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D60" s="3">
         <v>1.5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D61" s="3">
         <v>1.5</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D62" s="6">
         <v>1.5</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B64" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="30"/>
+    </row>
+    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="15"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="15"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="24">
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
@@ -1833,15 +2330,8 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Equipment" sheetId="2" r:id="rId2"/>
+    <sheet name="General Store" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="149">
   <si>
     <t>NAME</t>
   </si>
@@ -419,6 +420,51 @@
   </si>
   <si>
     <t>28kg</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Arrows +2</t>
+  </si>
+  <si>
+    <t>Arrows +3</t>
+  </si>
+  <si>
+    <t>Bolts +2</t>
+  </si>
+  <si>
+    <t>Bolts +3</t>
+  </si>
+  <si>
+    <t>Mortred's Armory</t>
+  </si>
+  <si>
+    <t>Military Provisions (Weapons, Armor, Provisions)</t>
+  </si>
+  <si>
+    <t>Nathaniel Rollins</t>
+  </si>
+  <si>
+    <t>LIST SOME EMPLOYEES</t>
+  </si>
+  <si>
+    <t>DESCRIBE THE PLACE</t>
+  </si>
+  <si>
+    <t>Select Kits</t>
+  </si>
+  <si>
+    <t>Armos +0/+1</t>
+  </si>
+  <si>
+    <t>Weapons +0/+1</t>
+  </si>
+  <si>
+    <t>Various kits</t>
   </si>
 </sst>
 </file>
@@ -628,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,6 +714,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,28 +756,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1032,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1045,177 +1097,185 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>0.25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1.5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
   </mergeCells>
@@ -1226,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E88"/>
+  <dimension ref="B1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,100 +1299,94 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="2:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
@@ -1346,7 +1400,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -1359,140 +1413,140 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>20</v>
@@ -1506,400 +1560,378 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D33" s="6">
         <v>1</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B34" s="18" t="s">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B35" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C38" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C39" s="33" t="s">
         <v>112</v>
-      </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
-    </row>
-    <row r="39" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>58</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+    <row r="40" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="17"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D46" s="3">
         <v>0.1</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="3">
         <v>1.5</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3">
         <v>1.5</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C51" s="3"/>
       <c r="D51" s="3">
         <v>1.5</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="3">
         <v>1.5</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D53" s="3">
         <v>1.5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3">
         <v>1.5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D55" s="3">
         <v>1.5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>86</v>
@@ -1913,425 +1945,770 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D57" s="3">
         <v>1.5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D58" s="3">
         <v>1.5</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D59" s="3">
         <v>1.5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D60" s="3">
         <v>1.5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D61" s="3">
         <v>1.5</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="5" t="s">
+    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D68" s="6">
         <v>1.5</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E68" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B64" s="18" t="s">
+    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B70" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-    </row>
-    <row r="65" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C71" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
-    </row>
-    <row r="66" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
+      <c r="D71" s="31"/>
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C72" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
-    </row>
-    <row r="67" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+    </row>
+    <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C73" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
-    </row>
-    <row r="68" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
+    </row>
+    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C74" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
-    </row>
-    <row r="69" spans="2:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
+      <c r="D74" s="33"/>
+      <c r="E74" s="34"/>
+    </row>
+    <row r="75" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C75" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="34"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="9" t="s">
+      <c r="D75" s="29"/>
+      <c r="E75" s="30"/>
+    </row>
+    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D79" s="3">
         <v>0.4</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E79" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D80" s="3">
         <v>0.2</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D81" s="3">
         <v>0.2</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E81" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="17"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="9" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="19"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D84" s="3">
         <v>1.4</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D85" s="3">
         <v>1.4</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D86" s="3">
         <v>1.4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="D87" s="3">
         <v>1.4</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="5" t="s">
+    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D95" s="6">
         <v>1.4</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B97" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="32"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="34"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" s="33"/>
+      <c r="E100" s="34"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="34"/>
+    </row>
+    <row r="102" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D102" s="29"/>
+      <c r="E102" s="30"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="30"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="19"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="17"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="19"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="8"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="8"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="8"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="8"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="8"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="8"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="8"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="5"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="36">
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Equipment" sheetId="2" r:id="rId2"/>
     <sheet name="General Store" sheetId="3" r:id="rId3"/>
+    <sheet name="Gems" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="162">
   <si>
     <t>NAME</t>
   </si>
@@ -343,9 +344,6 @@
   </si>
   <si>
     <t>William Lionel</t>
-  </si>
-  <si>
-    <t>Manager: Robert Banks</t>
   </si>
   <si>
     <t xml:space="preserve">Lionel Company is the premier armorshop in Heartland City.  It's known for it's excellent quality and high price tags.  The wealthiest of the knights frequent Lionel Company for their platemail and heavy shields.  </t>
@@ -465,6 +463,50 @@
   </si>
   <si>
     <t>Various kits</t>
+  </si>
+  <si>
+    <t>We Buy and Sell Blacks</t>
+  </si>
+  <si>
+    <t>Apex District.  Glass Ceiling Blvd</t>
+  </si>
+  <si>
+    <t>We Buy and Sell Blacks is a gem store on Glass Ceiling Blvd.  The building is small and the shop floor is smaller.  There is one counter with a small display; most of the gems are located in the store's vault.</t>
+  </si>
+  <si>
+    <t>Michael Bain</t>
+  </si>
+  <si>
+    <t>Gems, non-black</t>
+  </si>
+  <si>
+    <t>Gems, black</t>
+  </si>
+  <si>
+    <t>Natalia Aurus</t>
+  </si>
+  <si>
+    <t>The owner is known to be incrediably stingy with his prices.  One of the only reasons this store is still in business is because their competitor, Aurus Gems, does not deal in black gems.  Michael Bain will offer a quest to put his competitor out of business for a better modifier in both buying and selling.</t>
+  </si>
+  <si>
+    <t>Aurus Gems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurus Gems is the premiere shop in Heartland City for buying and selling Gems.  The store is on the smaller side of Glass Ceiling Blvd stores, but since it's a Gem store it requires a smaller floor.  The store is well-lit with a large glass store-front.  </t>
+  </si>
+  <si>
+    <t>Manager: Robert Banks
+Hired Help: Major Sanchez</t>
+  </si>
+  <si>
+    <t>Robert Banks will offer a quest to steal +3 platemail for a price.</t>
+  </si>
+  <si>
+    <t>Hired Help: Richard Jammer
+Hired Help: Gaylord Jammer</t>
+  </si>
+  <si>
+    <t>The store does not deal in black gems, buying or selling.</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1129,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1188,7 @@
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -1288,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1400,7 @@
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -1742,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="34"/>
@@ -1759,7 +1801,7 @@
     </row>
     <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -1849,7 +1891,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3">
@@ -1859,7 +1901,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3">
@@ -1869,7 +1911,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -1879,7 +1921,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -2150,12 +2192,12 @@
       <c r="D73" s="33"/>
       <c r="E73" s="34"/>
     </row>
-    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="D74" s="33"/>
       <c r="E74" s="34"/>
@@ -2165,16 +2207,18 @@
         <v>2</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="30"/>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="29"/>
+        <v>133</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>159</v>
+      </c>
       <c r="D76" s="29"/>
       <c r="E76" s="30"/>
     </row>
@@ -2200,7 +2244,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>17</v>
@@ -2262,35 +2306,35 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D84" s="3">
         <v>1.4</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D85" s="3">
         <v>1.4</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>79</v>
@@ -2299,12 +2343,12 @@
         <v>1.4</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>79</v>
@@ -2313,12 +2357,12 @@
         <v>1.4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>79</v>
@@ -2327,12 +2371,12 @@
         <v>1.4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>78</v>
@@ -2341,12 +2385,12 @@
         <v>1.4</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>85</v>
@@ -2355,29 +2399,29 @@
         <v>1.4</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D91" s="3">
         <v>1.4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D92" s="3">
         <v>1.4</v>
@@ -2388,7 +2432,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>78</v>
@@ -2397,41 +2441,41 @@
         <v>1.4</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D94" s="3">
         <v>1.4</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D95" s="6">
         <v>1.4</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B97" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C97" s="21"/>
       <c r="D97" s="21"/>
@@ -2442,7 +2486,7 @@
         <v>25</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="31"/>
       <c r="E98" s="32"/>
@@ -2462,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D100" s="33"/>
       <c r="E100" s="34"/>
@@ -2472,7 +2516,7 @@
         <v>24</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="34"/>
@@ -2482,14 +2526,14 @@
         <v>2</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D102" s="29"/>
       <c r="E102" s="30"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
@@ -2517,7 +2561,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>17</v>
@@ -2545,7 +2589,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>17</v>
@@ -2579,7 +2623,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -2587,7 +2631,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -2595,7 +2639,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -2657,6 +2701,33 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C102:E102"/>
     <mergeCell ref="C103:E103"/>
     <mergeCell ref="B104:E104"/>
@@ -2666,33 +2737,6 @@
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C100:E100"/>
     <mergeCell ref="C101:E101"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2703,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -2711,4 +2755,371 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B2" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
 </file>
--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="170">
   <si>
     <t>NAME</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Shield</t>
   </si>
   <si>
-    <t>The Heavy Hammer is a quaint military provisions shop run by a diligent Nathaniel Oaker.  Compared to other arms shops in Chimney Row, it's  quite underwhelming.  However, some of the highest levels of the Guard Infantry can be seen frequenting the Heavy Hammer.</t>
-  </si>
-  <si>
     <t>Obsidian Edge</t>
   </si>
   <si>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>Antone Debeton</t>
-  </si>
-  <si>
-    <t>Obsidian Edge is the top of the line weapons dealer in Heartland City and the largest shop in the kingdom.  It commands a large amount of attention from weapon dealers attempting to buy and blacksmithes attempting to sell. The shop is not exactly know for their fair prices.</t>
   </si>
   <si>
     <t>Less than 5kg</t>
@@ -486,27 +480,60 @@
     <t>Natalia Aurus</t>
   </si>
   <si>
-    <t>The owner is known to be incrediably stingy with his prices.  One of the only reasons this store is still in business is because their competitor, Aurus Gems, does not deal in black gems.  Michael Bain will offer a quest to put his competitor out of business for a better modifier in both buying and selling.</t>
-  </si>
-  <si>
     <t>Aurus Gems</t>
   </si>
   <si>
     <t xml:space="preserve">Aurus Gems is the premiere shop in Heartland City for buying and selling Gems.  The store is on the smaller side of Glass Ceiling Blvd stores, but since it's a Gem store it requires a smaller floor.  The store is well-lit with a large glass store-front.  </t>
   </si>
   <si>
+    <t>Robert Banks will offer a quest to steal +3 platemail for a price.</t>
+  </si>
+  <si>
+    <t>The store does not deal in black gems, buying or selling.</t>
+  </si>
+  <si>
+    <t>Employee: Olivia Granger
+Hired Help: Richard Jammer
+Hired Help: Gaylord Jammer</t>
+  </si>
+  <si>
     <t>Manager: Robert Banks
+Employee: Mitchel Whitehawk
 Hired Help: Major Sanchez</t>
   </si>
   <si>
-    <t>Robert Banks will offer a quest to steal +3 platemail for a price.</t>
-  </si>
-  <si>
-    <t>Hired Help: Richard Jammer
-Hired Help: Gaylord Jammer</t>
-  </si>
-  <si>
-    <t>The store does not deal in black gems, buying or selling.</t>
+    <t>The Heavy Hammer is a quaint military provisions shop run by a diligent Nathaniel Oaker.  Compared to other arms shops in Chimney Row, it's quite underwhelming.  However, some of the highest levels of the Guard Infantry can be seen frequenting the Heavy Hammer.</t>
+  </si>
+  <si>
+    <t>The Heavy Hammer has special magic items available to Guard Officers.</t>
+  </si>
+  <si>
+    <t>Obsidian Edge is the top of the line weapons dealer in Heartland City and the largest shop in the kingdom. It commands a large amount of attention from weapon dealers attempting to buy and blacksmithes attempting to sell. The shop is not exactly know for their fair prices.</t>
+  </si>
+  <si>
+    <t>The shop is very large and has a black clothe theme throughout.  Each weapon is encased its own glass fixture causing floor space to be vast and easily navigatable. Due to the quality of the items and the size of the store, the Obsidian Edge has Hired Help to keep a watchful eye.</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>9 days a week (3rd through the 8th) 7 AM to 5 PM</t>
+  </si>
+  <si>
+    <t>10 days a week, 7 AM to 10 PM</t>
+  </si>
+  <si>
+    <t>10 days a week, 9 AM to 8 PM</t>
+  </si>
+  <si>
+    <t>Five days a week (4th through 8th), 10 AM to 4 PM</t>
+  </si>
+  <si>
+    <t>The owner is known to be incrediably stingy with his prices.  One of the only reasons this store is still in business is because their competitor, Aurus Gems, does not deal in black gems. Actually, no other business in the city deals in Black Gems
+Michael Bain will offer a quest to put his competitor out of business for a better modifier in both buying and selling.</t>
+  </si>
+  <si>
+    <t>8 days a week (2nd through 9th), 9 AM - 8 PM</t>
   </si>
 </sst>
 </file>
@@ -716,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,6 +787,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,187 +1172,195 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>0.25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="3">
         <v>1.5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1328,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E122"/>
+  <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,108 +1382,106 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>159</v>
+      </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -1456,7 +1495,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -1469,140 +1508,140 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
@@ -1616,302 +1655,308 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" s="6">
+      <c r="C34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="32"/>
+      <c r="E34" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B36" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="34"/>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="36"/>
+    </row>
+    <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="36"/>
+    </row>
+    <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-    </row>
-    <row r="39" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11" t="s">
+      <c r="C40" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+    </row>
+    <row r="41" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-    </row>
-    <row r="40" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
+      <c r="C41" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-    </row>
-    <row r="41" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="C42" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="36"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>0.1</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="17"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3">
@@ -1921,7 +1966,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3">
@@ -1931,44 +1976,36 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C53" s="3"/>
       <c r="D53" s="3">
         <v>1.5</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C54" s="3"/>
       <c r="D54" s="3">
         <v>1.5</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D55" s="3">
         <v>1.5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
@@ -1976,74 +2013,74 @@
         <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D56" s="3">
         <v>1.5</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D57" s="3">
         <v>1.5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D58" s="3">
         <v>1.5</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D59" s="3">
         <v>1.5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D60" s="3">
         <v>1.5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>90</v>
@@ -2057,357 +2094,353 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D62" s="3">
         <v>1.5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D63" s="3">
         <v>1.5</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D64" s="3">
         <v>1.5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D65" s="3">
         <v>1.5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D66" s="3">
         <v>1.5</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D67" s="3">
         <v>1.5</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D68" s="6">
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" s="3">
         <v>1.5</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B70" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="22"/>
-    </row>
-    <row r="71" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="32"/>
-    </row>
-    <row r="72" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
+      <c r="E69" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B72" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="24"/>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D73" s="33"/>
       <c r="E73" s="34"/>
     </row>
-    <row r="74" spans="2:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="11" t="s">
+    <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="35"/>
+      <c r="E74" s="36"/>
+    </row>
+    <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="36"/>
+    </row>
+    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="36"/>
+    </row>
+    <row r="77" spans="2:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C77" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
-    </row>
-    <row r="75" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
+      <c r="D77" s="35"/>
+      <c r="E77" s="36"/>
+    </row>
+    <row r="78" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="29"/>
-      <c r="E75" s="30"/>
-    </row>
-    <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="29"/>
-      <c r="E76" s="30"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="19"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="9" t="s">
+      <c r="C78" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="19"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" s="3" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D82" s="3">
         <v>0.4</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E82" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="C84" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="3">
         <v>0.2</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
+      <c r="E84" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D87" s="3">
         <v>1.4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D88" s="3">
         <v>1.4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89" s="3">
         <v>1.4</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D90" s="3">
         <v>1.4</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D91" s="3">
         <v>1.4</v>
@@ -2418,24 +2451,24 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D92" s="3">
         <v>1.4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D93" s="3">
         <v>1.4</v>
@@ -2446,10 +2479,10 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D94" s="3">
         <v>1.4</v>
@@ -2458,213 +2491,241 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="5" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E97" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D95" s="6">
+    </row>
+    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" s="6">
         <v>1.4</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B97" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="22"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
+      <c r="E98" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B100" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="24"/>
+    </row>
+    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C98" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="32"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="34"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="34"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="C101" s="33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="34"/>
     </row>
-    <row r="102" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
+    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="35"/>
+      <c r="E102" s="36"/>
+    </row>
+    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
+    </row>
+    <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="35"/>
+      <c r="E104" s="36"/>
+    </row>
+    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="35"/>
+      <c r="E105" s="36"/>
+    </row>
+    <row r="106" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C106" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="31"/>
+      <c r="E106" s="32"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="32"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="19"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="19"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="21"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="30"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="30"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="17"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D106" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D107" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D108" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="17"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="19"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="8"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="8"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="8"/>
+      <c r="B116" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="8"/>
+      <c r="B117" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
@@ -2693,50 +2754,78 @@
       <c r="D121" s="3"/>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="5"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="7"/>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="8"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="8"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="8"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
+  <mergeCells count="40">
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B72:E72"/>
     <mergeCell ref="C73:E73"/>
     <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
     <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2759,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2772,114 +2861,112 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="2:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
+      <c r="C8" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="2:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -2887,7 +2974,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -2900,224 +2987,250 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>1.85</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B20" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B19" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="34"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C24" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+    </row>
+    <row r="26" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-    </row>
-    <row r="23" spans="2:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-    </row>
-    <row r="25" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D30" s="3">
         <v>0.75</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>0.6</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="6" t="s">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D34" s="6">
         <v>1.5</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="B28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -465,9 +465,6 @@
     <t>Apex District.  Glass Ceiling Blvd</t>
   </si>
   <si>
-    <t>We Buy and Sell Blacks is a gem store on Glass Ceiling Blvd.  The building is small and the shop floor is smaller.  There is one counter with a small display; most of the gems are located in the store's vault.</t>
-  </si>
-  <si>
     <t>Michael Bain</t>
   </si>
   <si>
@@ -534,6 +531,9 @@
   </si>
   <si>
     <t>8 days a week (2nd through 9th), 9 AM - 8 PM</t>
+  </si>
+  <si>
+    <t>We Buy and Sell Blacks is a gem store on Glass Ceiling Blvd.  The building is small and the shop floor is smaller.  There is one counter with a small display; most of the gems are located in the store's vault. The shop is dimly lit.  The only light comes from the front two windows and two candles behind the desk.</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>164</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -1454,7 +1454,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
@@ -1857,7 +1857,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
@@ -1867,7 +1867,7 @@
         <v>132</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="36"/>
@@ -2272,7 +2272,7 @@
         <v>24</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="36"/>
@@ -2292,7 +2292,7 @@
         <v>131</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="32"/>
@@ -2578,10 +2578,10 @@
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="36"/>
@@ -2786,6 +2786,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="C106:E106"/>
     <mergeCell ref="C107:E107"/>
     <mergeCell ref="B108:E108"/>
@@ -2796,36 +2826,6 @@
     <mergeCell ref="C104:E104"/>
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C75:E75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2850,8 +2850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -2903,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2918,22 +2918,22 @@
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
     </row>
-    <row r="8" spans="2:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
     </row>
-    <row r="9" spans="2:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -3051,7 +3051,7 @@
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B20" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3079,10 +3079,10 @@
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
@@ -3102,27 +3102,27 @@
         <v>24</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
     </row>
-    <row r="26" spans="2:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
     </row>
-    <row r="27" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
@@ -3211,12 +3211,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B15:E15"/>
@@ -3231,6 +3225,12 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="174">
   <si>
     <t>NAME</t>
   </si>
@@ -420,18 +420,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Arrows +2</t>
-  </si>
-  <si>
-    <t>Arrows +3</t>
-  </si>
-  <si>
-    <t>Bolts +2</t>
-  </si>
-  <si>
-    <t>Bolts +3</t>
-  </si>
-  <si>
     <t>Mortred's Armory</t>
   </si>
   <si>
@@ -514,13 +502,7 @@
     <t>HOURS</t>
   </si>
   <si>
-    <t>9 days a week (3rd through the 8th) 7 AM to 5 PM</t>
-  </si>
-  <si>
     <t>10 days a week, 7 AM to 10 PM</t>
-  </si>
-  <si>
-    <t>10 days a week, 9 AM to 8 PM</t>
   </si>
   <si>
     <t>Five days a week (4th through 8th), 10 AM to 4 PM</t>
@@ -534,6 +516,36 @@
   </si>
   <si>
     <t>We Buy and Sell Blacks is a gem store on Glass Ceiling Blvd.  The building is small and the shop floor is smaller.  There is one counter with a small display; most of the gems are located in the store's vault. The shop is dimly lit.  The only light comes from the front two windows and two candles behind the desk.</t>
+  </si>
+  <si>
+    <t>Arrows +3 (100)</t>
+  </si>
+  <si>
+    <t>Arrows +2 (100)</t>
+  </si>
+  <si>
+    <t>Bolts +2 (100)</t>
+  </si>
+  <si>
+    <t>Bolts +3 (100)</t>
+  </si>
+  <si>
+    <t>500g / 20</t>
+  </si>
+  <si>
+    <t>750g / 20</t>
+  </si>
+  <si>
+    <t>50g / 20</t>
+  </si>
+  <si>
+    <t>75g / 20</t>
+  </si>
+  <si>
+    <t>9 days a week (off the 10th), 9 AM to 8 PM</t>
+  </si>
+  <si>
+    <t>8 days a week (2nd through the 8th) 7 AM to 5 PM</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1209,7 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1371,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,10 +1423,10 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -1444,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -1454,7 +1466,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
@@ -1824,10 +1836,10 @@
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
@@ -1857,7 +1869,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
@@ -1867,7 +1879,7 @@
         <v>132</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
@@ -1956,43 +1968,59 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="D51" s="3">
         <v>1.5</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D52" s="3">
         <v>1.5</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="D53" s="3">
         <v>1.5</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="D54" s="3">
         <v>1.5</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
@@ -2249,10 +2277,10 @@
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="36"/>
@@ -2272,7 +2300,7 @@
         <v>24</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="36"/>
@@ -2292,7 +2320,7 @@
         <v>131</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="32"/>
@@ -2550,7 +2578,7 @@
     <row r="99" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B100" s="22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -2561,7 +2589,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="34"/>
@@ -2578,10 +2606,10 @@
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="36"/>
@@ -2591,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="36"/>
@@ -2601,7 +2629,7 @@
         <v>24</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="36"/>
@@ -2611,7 +2639,7 @@
         <v>2</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
@@ -2674,7 +2702,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>17</v>
@@ -2708,7 +2736,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -2716,7 +2744,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -2724,7 +2752,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2786,6 +2814,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B85:E85"/>
@@ -2796,36 +2854,6 @@
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C78:E78"/>
     <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C103:E103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2850,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2862,7 +2890,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B2" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2883,17 +2911,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -2903,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2923,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
@@ -2933,7 +2961,7 @@
         <v>131</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -2960,7 +2988,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -2974,7 +3002,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3022,7 +3050,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -3036,7 +3064,7 @@
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -3051,7 +3079,7 @@
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B20" s="22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3072,17 +3100,17 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>162</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>168</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
@@ -3092,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
@@ -3102,7 +3130,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
@@ -3112,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
@@ -3122,7 +3150,7 @@
         <v>131</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
@@ -3149,7 +3177,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -3197,7 +3225,7 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
@@ -3211,6 +3239,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B15:E15"/>
@@ -3225,12 +3259,6 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="190">
   <si>
     <t>NAME</t>
   </si>
@@ -106,9 +106,6 @@
     <t>The Apex District of Heartland City.  Located in Chimney Row.</t>
   </si>
   <si>
-    <t>Military Provisions (Weapons &amp; Armor)</t>
-  </si>
-  <si>
     <t>Probably Others</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Obsidian Edge</t>
   </si>
   <si>
-    <t>Military Provisions (Weapons only)</t>
-  </si>
-  <si>
     <t>Weapons</t>
   </si>
   <si>
@@ -332,9 +326,6 @@
   </si>
   <si>
     <t>Lionel Company</t>
-  </si>
-  <si>
-    <t>Military Provisions (Armor only)</t>
   </si>
   <si>
     <t>William Lionel</t>
@@ -423,9 +414,6 @@
     <t>Mortred's Armory</t>
   </si>
   <si>
-    <t>Military Provisions (Weapons, Armor, Provisions)</t>
-  </si>
-  <si>
     <t>Nathaniel Rollins</t>
   </si>
   <si>
@@ -546,6 +534,71 @@
   </si>
   <si>
     <t>8 days a week (2nd through the 8th) 7 AM to 5 PM</t>
+  </si>
+  <si>
+    <t>High-end Military Provisions (Armor only)</t>
+  </si>
+  <si>
+    <t>High-end Military Provisions (Weapons only)</t>
+  </si>
+  <si>
+    <t>Standard Military Provisions (Weapons &amp; Armor)</t>
+  </si>
+  <si>
+    <t>Above Average Military Provisions (Weapons, Armor, Provisions)</t>
+  </si>
+  <si>
+    <t>General Store</t>
+  </si>
+  <si>
+    <t>Waldmart</t>
+  </si>
+  <si>
+    <t>Samuel &amp; Helen Waldon</t>
+  </si>
+  <si>
+    <t>"Ghost Town" (Center of the Apex District)</t>
+  </si>
+  <si>
+    <t>Entering the Ghost Town section of the Apex District, you're midly confused about the description as the street is bustling with activity.   Slowly, you realize that all of the foot traffic is coming to and from one store.  Above the entrance to this towering shop is the name 'Waldmart'.  Looking around as you walk towards the crowded cneter, you notice that all of the other store fronts are closed or flat out empty.</t>
+  </si>
+  <si>
+    <t>Manager: Jim Waldon
+Appraiser: John Waldon
+Clerk: Alice Waldon
+Clerk: S. Robison Waldon
+Clerk: Lukas Waldon
+Clerk: Gaston DeBount</t>
+  </si>
+  <si>
+    <t>The store is owned and managed by the Waldon family; one of the richest families in all of Light's Perch. As of now, they only have one non-family employee, Gaston.  Gaston absolutely abhores the Waldons as they are extremely stingy with their profits and they pay very little.</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Weapons, non-magic</t>
+  </si>
+  <si>
+    <t>Armor, non-magic</t>
+  </si>
+  <si>
+    <t>0.75 (may vary)</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Armor, common,non-magic</t>
+  </si>
+  <si>
+    <t>Max 500g</t>
+  </si>
+  <si>
+    <t>Weapons, Commonnon-magic</t>
+  </si>
+  <si>
+    <t>Various Values</t>
   </si>
 </sst>
 </file>
@@ -755,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +919,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1174,7 +1230,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1265,7 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -1241,7 +1297,7 @@
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
@@ -1383,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1462,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
@@ -1423,10 +1479,10 @@
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -1446,7 +1502,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -1456,17 +1512,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
@@ -1493,7 +1549,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -1507,7 +1563,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -1521,7 +1577,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
@@ -1555,7 +1611,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>20</v>
@@ -1569,35 +1625,35 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
@@ -1611,21 +1667,21 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>20</v>
@@ -1639,21 +1695,21 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>20</v>
@@ -1667,7 +1723,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>20</v>
@@ -1681,7 +1737,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -1695,7 +1751,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>22</v>
@@ -1709,7 +1765,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>21</v>
@@ -1723,7 +1779,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>20</v>
@@ -1737,7 +1793,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>21</v>
@@ -1751,7 +1807,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -1765,21 +1821,21 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
@@ -1793,22 +1849,22 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -1819,7 +1875,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="34"/>
@@ -1836,10 +1892,10 @@
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
@@ -1849,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
@@ -1859,7 +1915,7 @@
         <v>24</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
@@ -1869,17 +1925,17 @@
         <v>2</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
@@ -1906,7 +1962,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>17</v>
@@ -1920,30 +1976,30 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D47" s="3">
         <v>0.1</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="3">
         <v>0.1</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
@@ -1968,288 +2024,288 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3">
         <v>1.5</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D52" s="3">
         <v>1.5</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D53" s="3">
         <v>1.5</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" s="3">
         <v>1.5</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D55" s="3">
         <v>1.5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D56" s="3">
         <v>1.5</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D57" s="3">
         <v>1.5</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D58" s="3">
         <v>1.5</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D59" s="3">
         <v>1.5</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="3">
         <v>1.5</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D61" s="3">
         <v>1.5</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D62" s="3">
         <v>1.5</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D63" s="3">
         <v>1.5</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D64" s="3">
         <v>1.5</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D65" s="3">
         <v>1.5</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D66" s="3">
         <v>1.5</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D67" s="3">
         <v>1.5</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D68" s="3">
         <v>1.5</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D69" s="3">
         <v>1.5</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D70" s="6">
         <v>1.5</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B72" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="23"/>
       <c r="D72" s="23"/>
@@ -2260,7 +2316,7 @@
         <v>25</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="D73" s="33"/>
       <c r="E73" s="34"/>
@@ -2277,10 +2333,10 @@
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="36"/>
@@ -2290,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="36"/>
@@ -2300,7 +2356,7 @@
         <v>24</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="36"/>
@@ -2310,17 +2366,17 @@
         <v>2</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="32"/>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="32"/>
@@ -2347,7 +2403,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>17</v>
@@ -2361,30 +2417,30 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D83" s="3">
         <v>0.2</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84" s="3">
         <v>0.2</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
@@ -2409,176 +2465,176 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D87" s="3">
         <v>1.4</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D88" s="3">
         <v>1.4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D89" s="3">
         <v>1.4</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D90" s="3">
         <v>1.4</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D91" s="3">
         <v>1.4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D92" s="3">
         <v>1.4</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D93" s="3">
         <v>1.4</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D94" s="3">
         <v>1.4</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D95" s="3">
         <v>1.4</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D96" s="3">
         <v>1.4</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D97" s="3">
         <v>1.4</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D98" s="6">
         <v>1.4</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B100" s="22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
@@ -2589,7 +2645,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="34"/>
@@ -2606,10 +2662,10 @@
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C103" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="36"/>
@@ -2619,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="C104" s="35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="36"/>
@@ -2629,7 +2685,7 @@
         <v>24</v>
       </c>
       <c r="C105" s="35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="36"/>
@@ -2639,14 +2695,14 @@
         <v>2</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="32"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C107" s="31"/>
       <c r="D107" s="31"/>
@@ -2674,7 +2730,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>17</v>
@@ -2688,7 +2744,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>17</v>
@@ -2702,7 +2758,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>17</v>
@@ -2736,7 +2792,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -2744,7 +2800,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -2752,7 +2808,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -2814,6 +2870,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="C106:E106"/>
     <mergeCell ref="C107:E107"/>
     <mergeCell ref="B108:E108"/>
@@ -2824,36 +2910,6 @@
     <mergeCell ref="C104:E104"/>
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C103:E103"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C75:E75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2862,14 +2918,290 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
+      <c r="B2" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+    </row>
+    <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2879,7 +3211,7 @@
   <dimension ref="B1:E34"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,7 +3222,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B2" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
@@ -2911,17 +3243,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -2931,7 +3263,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -2951,17 +3283,17 @@
         <v>2</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="32"/>
@@ -2988,7 +3320,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
@@ -3002,7 +3334,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
@@ -3050,7 +3382,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>17</v>
@@ -3064,7 +3396,7 @@
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>17</v>
@@ -3079,7 +3411,7 @@
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
       <c r="B20" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
@@ -3100,17 +3432,17 @@
         <v>1</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>158</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>162</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
@@ -3120,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
@@ -3130,7 +3462,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
@@ -3140,17 +3472,17 @@
         <v>2</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="32"/>
@@ -3177,7 +3509,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>17</v>
@@ -3225,7 +3557,7 @@
     </row>
     <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>17</v>
@@ -3239,12 +3571,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B15:E15"/>
@@ -3259,6 +3585,12 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/DND/Maps/Shops/Heartland.xlsx
+++ b/DND/Maps/Shops/Heartland.xlsx
@@ -860,6 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -919,9 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1240,28 +1240,28 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
@@ -1275,17 +1275,17 @@
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
@@ -1299,15 +1299,15 @@
       <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -1358,10 +1358,10 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101:E101"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,88 +1450,88 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -1590,10 +1590,10 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -1863,88 +1863,88 @@
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
     </row>
     <row r="41" spans="2:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
     </row>
     <row r="42" spans="2:5" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
     </row>
     <row r="43" spans="2:5" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
@@ -2003,10 +2003,10 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
@@ -2304,88 +2304,88 @@
     </row>
     <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25"/>
     </row>
     <row r="73" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
     </row>
     <row r="74" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="37"/>
     </row>
     <row r="75" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="37"/>
     </row>
     <row r="76" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="35" t="s">
+      <c r="C76" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="37"/>
     </row>
     <row r="77" spans="2:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="35" t="s">
+      <c r="C77" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="37"/>
     </row>
     <row r="78" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="33"/>
     </row>
     <row r="79" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="19"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
@@ -2444,10 +2444,10 @@
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
@@ -2633,86 +2633,86 @@
     </row>
     <row r="99" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="35"/>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
     </row>
     <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D103" s="35"/>
-      <c r="E103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="35"/>
-      <c r="E104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="37"/>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D105" s="35"/>
-      <c r="E105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="37"/>
     </row>
     <row r="106" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="D106" s="31"/>
-      <c r="E106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="33"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="33"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="21"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="21"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
@@ -2771,10 +2771,10 @@
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="21"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
@@ -2870,6 +2870,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="B80:E80"/>
     <mergeCell ref="B85:E85"/>
@@ -2880,36 +2910,6 @@
     <mergeCell ref="C77:E77"/>
     <mergeCell ref="C78:E78"/>
     <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="B108:E108"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C103:E103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2921,7 +2921,7 @@
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2932,88 +2932,88 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -3100,10 +3100,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
@@ -3176,7 +3176,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3221,88 +3221,88 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="2:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="2:5" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
@@ -3361,10 +3361,10 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
@@ -3410,88 +3410,88 @@
     </row>
     <row r="19" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:5" ht="37.5" x14ac:dyDescent="0.75">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
     </row>
     <row r="22" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
@@ -3536,10 +3536,10 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
@@ -3571,6 +3571,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C5:E5"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B15:E15"/>
@@ -3585,12 +3591,6 @@
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
